--- a/BackTest/2020-01-16 BackTest CHR.xlsx
+++ b/BackTest/2020-01-16 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,22 +1111,15 @@
         <v>-938887.1811981497</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>13</v>
-      </c>
-      <c r="K22" t="n">
-        <v>13</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1218,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>13</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1260,22 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>13</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1410,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1444,22 +1342,15 @@
         <v>-959417.0681981497</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,22 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1526,26 +1408,15 @@
         <v>-954159.8933981496</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1572,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1608,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1680,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1716,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1750,18 +1606,15 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1786,18 +1639,15 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1822,18 +1672,15 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1860,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1894,22 +1738,19 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>13.34</v>
       </c>
       <c r="J41" t="n">
         <v>13.34</v>
       </c>
-      <c r="K41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1934,26 +1775,21 @@
         <v>-872399.4398384196</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>13.34</v>
       </c>
-      <c r="K42" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1978,26 +1814,21 @@
         <v>-872361.4398384196</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K43" t="n">
         <v>13.34</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2022,26 +1853,21 @@
         <v>-853622.3173384195</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="K44" t="n">
         <v>13.34</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2066,26 +1892,21 @@
         <v>-883238.9669384195</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K45" t="n">
         <v>13.34</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2110,26 +1931,23 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="J46" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K46" t="n">
         <v>13.34</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2154,26 +1972,21 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="K47" t="n">
         <v>13.34</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2198,26 +2011,21 @@
         <v>-871090.1338627795</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="K48" t="n">
         <v>13.34</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2242,26 +2050,21 @@
         <v>-871129.1338627795</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="K49" t="n">
         <v>13.34</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2288,22 +2091,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>13.34</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2330,22 +2130,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>13.34</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2372,22 +2169,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>13.34</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2414,22 +2208,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>13.34</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2456,22 +2247,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>13.34</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2496,24 +2284,23 @@
         <v>-804007.3356627795</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J55" t="n">
         <v>13.34</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2540,22 +2327,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>13.34</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2582,22 +2366,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>13.34</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2622,24 +2403,23 @@
         <v>-882356.8158627795</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J58" t="n">
         <v>13.34</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2664,26 +2444,21 @@
         <v>-882318.8158627795</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="K59" t="n">
         <v>13.34</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2710,22 +2485,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>13.34</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2752,22 +2524,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>13.34</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2794,22 +2563,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
         <v>13.34</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2836,22 +2602,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>13.34</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2878,22 +2641,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
         <v>13.34</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2920,22 +2680,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>13.34</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2962,22 +2719,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>13.34</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3004,22 +2758,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>13.34</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3046,22 +2797,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>13.34</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1.046724137931035</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3086,18 +2834,21 @@
         <v>-846552.6065225095</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3122,18 +2873,21 @@
         <v>-909848.7971225095</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>0.9927511244377811</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3158,18 +2912,15 @@
         <v>-952036.5224225095</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3196,16 +2947,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3230,22 +2978,19 @@
         <v>-994620.8207225095</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>13.15</v>
       </c>
       <c r="J73" t="n">
         <v>13.15</v>
       </c>
-      <c r="K73" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3272,22 +3017,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>13.15</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3314,22 +3056,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>13.15</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3354,18 +3093,23 @@
         <v>-1092349.934022509</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>13.31</v>
+      </c>
+      <c r="J76" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3390,18 +3134,23 @@
         <v>-1088722.09352251</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>13.15</v>
+      </c>
+      <c r="J77" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3426,24 +3175,23 @@
         <v>-978381.3635225096</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="J78" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>13.15</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3468,22 +3216,21 @@
         <v>-968069.2418225096</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3508,22 +3255,23 @@
         <v>-957787.2908225096</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+        <v>13.89</v>
+      </c>
+      <c r="J80" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3548,22 +3296,21 @@
         <v>-963939.8165225096</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3588,22 +3335,21 @@
         <v>-963903.9965225096</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3628,22 +3374,21 @@
         <v>-963903.9965225096</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3668,22 +3413,21 @@
         <v>-993903.9965225096</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3708,22 +3452,21 @@
         <v>-993867.9965225096</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3748,22 +3491,21 @@
         <v>-994867.9965225096</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3788,22 +3530,21 @@
         <v>-994867.9965225096</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.033022813688213</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3828,22 +3569,15 @@
         <v>-972050.0395225096</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3868,22 +3602,15 @@
         <v>-972013.0395225096</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3908,22 +3635,15 @@
         <v>-1064402.67962251</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3950,20 +3670,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3988,22 +3701,15 @@
         <v>-1077538.02472251</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4028,22 +3734,15 @@
         <v>-1077501.924722509</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4068,22 +3767,15 @@
         <v>-1088507.03352251</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4110,20 +3802,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4148,22 +3833,15 @@
         <v>-1093317.68342251</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4190,20 +3868,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4228,22 +3899,15 @@
         <v>-1093315.68342251</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4270,20 +3934,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4308,22 +3965,15 @@
         <v>-1093365.68342251</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4350,20 +4000,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4388,24 +4031,17 @@
         <v>-1089154.79712251</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CHR.xlsx
+++ b/BackTest/2020-01-16 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-986131.0854390897</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1276,10 +1276,14 @@
         <v>-949895.1181981497</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>13</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1309,11 +1313,19 @@
         <v>-959455.0681981497</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>13</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1354,19 @@
         <v>-959417.0681981497</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1606,7 +1626,7 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1641,9 +1661,15 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>13.73</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1698,15 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1735,17 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13.76</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,15 +1774,17 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>13.34</v>
       </c>
-      <c r="J41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,15 +1813,15 @@
         <v>-872399.4398384196</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>13.34</v>
       </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1814,12 +1852,12 @@
         <v>-872361.4398384196</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1853,12 +1891,12 @@
         <v>-853622.3173384195</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1892,12 +1930,12 @@
         <v>-883238.9669384195</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1931,14 +1969,12 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>13.1</v>
       </c>
-      <c r="J46" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1972,12 +2008,12 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2011,12 +2047,12 @@
         <v>-871090.1338627795</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,12 +2086,12 @@
         <v>-871129.1338627795</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2089,12 +2125,12 @@
         <v>-802029.1338627795</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2128,12 +2164,12 @@
         <v>-802029.1338627795</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,9 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,9 +2243,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2248,9 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2284,14 +2314,10 @@
         <v>-804007.3356627795</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>13.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2328,9 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2364,12 +2388,12 @@
         <v>-880672.9633627795</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2403,14 +2427,12 @@
         <v>-882356.8158627795</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>13.2</v>
       </c>
-      <c r="J58" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,12 +2466,12 @@
         <v>-882318.8158627795</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,12 +2505,12 @@
         <v>-882357.8158627795</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,12 +2544,12 @@
         <v>-910459.7299627796</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2564,9 +2586,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,9 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,12 +2657,12 @@
         <v>-900948.2672627795</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>13.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,9 +2699,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,9 +2736,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2759,9 +2773,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,9 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,12 +2844,10 @@
         <v>-846552.6065225095</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,19 +2881,17 @@
         <v>-909848.7971225095</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>13.34</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.9927511244377811</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -2912,11 +2918,17 @@
         <v>-952036.5224225095</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13.31</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2957,17 @@
         <v>-1031268.378722509</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2978,15 +2996,17 @@
         <v>-994620.8207225095</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>13.15</v>
       </c>
-      <c r="J73" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3015,15 +3035,15 @@
         <v>-994660.8207225095</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>13.15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3057,12 +3077,10 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3093,17 +3111,15 @@
         <v>-1092349.934022509</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>13.31</v>
       </c>
-      <c r="J76" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3134,14 +3150,12 @@
         <v>-1088722.09352251</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>13.15</v>
       </c>
-      <c r="J77" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,14 +3189,12 @@
         <v>-978381.3635225096</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>13.3</v>
       </c>
-      <c r="J78" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,12 +3228,12 @@
         <v>-968069.2418225096</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>13.15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,14 +3267,10 @@
         <v>-957787.2908225096</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="J80" t="n">
-        <v>13.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3296,12 +3304,10 @@
         <v>-963939.8165225096</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3335,12 +3341,10 @@
         <v>-963903.9965225096</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3374,12 +3378,10 @@
         <v>-963903.9965225096</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,12 +3415,10 @@
         <v>-993903.9965225096</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,12 +3452,10 @@
         <v>-993867.9965225096</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3491,12 +3489,10 @@
         <v>-994867.9965225096</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>13.15</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,19 +3526,19 @@
         <v>-994867.9965225096</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>13.15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.033022813688213</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3569,11 +3565,15 @@
         <v>-972050.0395225096</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3602,15 @@
         <v>-972013.0395225096</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3639,15 @@
         <v>-1064402.67962251</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +3680,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3713,15 @@
         <v>-1077538.02472251</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +3750,15 @@
         <v>-1077501.924722509</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3767,11 +3787,15 @@
         <v>-1088507.03352251</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3824,17 @@
         <v>-1088470.83352251</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>13.31</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +3863,17 @@
         <v>-1093317.68342251</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3870,7 +3906,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3939,17 @@
         <v>-1093315.68342251</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13.4</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3932,11 +3978,17 @@
         <v>-1093365.68342251</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>13.69</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +4017,17 @@
         <v>-1093365.68342251</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +4056,17 @@
         <v>-1093443.68342251</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4031,17 +4095,23 @@
         <v>-1089154.79712251</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>13.31</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CHR.xlsx
+++ b/BackTest/2020-01-16 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-986131.0854390897</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1276,14 +1276,10 @@
         <v>-949895.1181981497</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,126 +1309,126 @@
         <v>-959455.0681981497</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>13</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>38</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-959417.0681981497</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2077.0575</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-959417.0681981497</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>13.23</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C31" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E31" t="n">
         <v>13.23</v>
       </c>
-      <c r="D29" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E29" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="F29" t="n">
-        <v>38</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-959417.0681981497</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="F31" t="n">
+        <v>5257.1748</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-954159.8933981496</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>12.97</v>
       </c>
-      <c r="J29" t="n">
-        <v>13</v>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="C30" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D30" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E30" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2077.0575</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-959417.0681981497</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="C31" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="D31" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E31" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5257.1748</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-954159.8933981496</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1593,7 +1589,7 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1626,7 +1622,7 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1659,746 +1655,656 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>13.73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4447.396</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-866303.6906384196</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="F40" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-866341.6906384196</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1018.8998</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-866341.6906384196</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="C42" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6057.7492</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-872399.4398384196</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="F43" t="n">
+        <v>38</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-872361.4398384196</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="F44" t="n">
+        <v>18739.1225</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-853622.3173384195</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="C45" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>29616.6496</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-883238.9669384195</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="C46" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1834.4307</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-881404.5362384195</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="C47" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="F47" t="n">
+        <v>69097.3961</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-881404.5362384195</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="D48" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10314.40237564</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-871090.1338627795</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="D49" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="F49" t="n">
+        <v>39</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-871129.1338627795</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="F50" t="n">
+        <v>69100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-802029.1338627795</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="D51" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="E51" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="F51" t="n">
+        <v>45351.1328</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-802029.1338627795</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="F52" t="n">
+        <v>988.4769</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-803017.6107627795</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="F53" t="n">
+        <v>64606.5011</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-803017.6107627795</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1027.7249</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-804045.3356627795</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="F55" t="n">
+        <v>38</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-804007.3356627795</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="D56" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="F56" t="n">
+        <v>73786.6703</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-877794.0059627795</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2878.9574</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-880672.9633627795</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="C39" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="D39" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E39" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4447.396</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-866303.6906384196</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="C40" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="D40" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="E40" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="F40" t="n">
-        <v>38</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-866341.6906384196</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="C41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="D41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="E41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1018.8998</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-866341.6906384196</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="C42" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="E42" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6057.7492</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-872399.4398384196</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="C43" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="D43" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="E43" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="F43" t="n">
-        <v>38</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-872361.4398384196</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="C44" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="D44" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="E44" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="F44" t="n">
-        <v>18739.1225</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-853622.3173384195</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="C45" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="E45" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>29616.6496</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-883238.9669384195</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="C46" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="D46" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="E46" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1834.4307</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-881404.5362384195</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="C47" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="D47" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="E47" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="F47" t="n">
-        <v>69097.3961</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-881404.5362384195</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="C48" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="D48" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="E48" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10314.40237564</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-871090.1338627795</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="C49" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="D49" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="E49" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="F49" t="n">
-        <v>39</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-871129.1338627795</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="C50" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="E50" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="F50" t="n">
-        <v>69100</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-802029.1338627795</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="C51" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="D51" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="E51" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="F51" t="n">
-        <v>45351.1328</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-802029.1338627795</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="C52" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="D52" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="E52" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="F52" t="n">
-        <v>988.4769</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-803017.6107627795</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="C53" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="D53" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="E53" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="F53" t="n">
-        <v>64606.5011</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-803017.6107627795</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1027.7249</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-804045.3356627795</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="C55" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="D55" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="E55" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="F55" t="n">
-        <v>38</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-804007.3356627795</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="C56" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="D56" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="E56" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="F56" t="n">
-        <v>73786.6703</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-877794.0059627795</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2878.9574</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-880672.9633627795</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2427,12 +2333,12 @@
         <v>-882356.8158627795</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,7 +2377,9 @@
       <c r="I59" t="n">
         <v>13.15</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2505,12 +2413,12 @@
         <v>-882357.8158627795</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,7 +2457,9 @@
       <c r="I61" t="n">
         <v>13.15</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,10 +2493,14 @@
         <v>-910421.7299627796</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="J62" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,10 +2534,14 @@
         <v>-914555.2959627795</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2662,7 +2580,9 @@
       <c r="I64" t="n">
         <v>13.15</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,7 +2619,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2736,7 +2658,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,7 +2697,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,7 +2736,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,7 +2775,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2884,7 +2814,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,12 +2850,12 @@
         <v>-952036.5224225095</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2957,12 +2889,12 @@
         <v>-1031268.378722509</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>13.3</v>
       </c>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,12 +2928,12 @@
         <v>-994620.8207225095</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3035,12 +2967,12 @@
         <v>-994660.8207225095</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,17 +3006,19 @@
         <v>-1001528.22722251</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0.9957518796992481</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -3111,17 +3045,11 @@
         <v>-1092349.934022509</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13.31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3150,17 +3078,11 @@
         <v>-1088722.09352251</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>13.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3189,17 +3111,11 @@
         <v>-978381.3635225096</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3228,17 +3144,11 @@
         <v>-968069.2418225096</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3271,11 +3181,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3308,11 +3214,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3247,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3382,11 +3280,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3419,11 +3313,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3346,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3379,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3526,17 +3408,11 @@
         <v>-994867.9965225096</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>13.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3445,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3478,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3511,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3544,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3717,11 +3577,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3610,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3643,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3824,17 +3672,11 @@
         <v>-1088470.83352251</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>13.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3863,17 +3705,11 @@
         <v>-1093317.68342251</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3906,11 +3742,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3939,17 +3771,11 @@
         <v>-1093315.68342251</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3978,17 +3804,11 @@
         <v>-1093365.68342251</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4017,17 +3837,11 @@
         <v>-1093365.68342251</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4056,17 +3870,11 @@
         <v>-1093443.68342251</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4095,23 +3903,17 @@
         <v>-1089154.79712251</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>13.31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CHR.xlsx
+++ b/BackTest/2020-01-16 BackTest CHR.xlsx
@@ -1342,14 +1342,10 @@
         <v>-959417.0681981497</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1382,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1421,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1589,10 +1573,14 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="J36" t="n">
+        <v>13.49</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1622,11 +1610,19 @@
         <v>-1011829.41149815</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1651,19 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J38" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,10 +1692,14 @@
         <v>-866303.6906384196</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13.76</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1721,11 +1729,19 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="J40" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1770,19 @@
         <v>-866341.6906384196</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="J41" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1811,19 @@
         <v>-872399.4398384196</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1852,19 @@
         <v>-872361.4398384196</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +1893,19 @@
         <v>-853622.3173384195</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="J44" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1934,19 @@
         <v>-883238.9669384195</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="J45" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +1975,19 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2016,19 @@
         <v>-881404.5362384195</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2057,19 @@
         <v>-871090.1338627795</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2098,19 @@
         <v>-871129.1338627795</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="J49" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2139,19 @@
         <v>-802029.1338627795</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2180,19 @@
         <v>-802029.1338627795</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="J51" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2224,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2153,8 +2263,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2302,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2216,15 +2338,17 @@
         <v>-804007.3356627795</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>13.76</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2257,11 +2381,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2292,17 +2416,15 @@
         <v>-880672.9633627795</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2333,11 +2455,13 @@
         <v>-882356.8158627795</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J58" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2378,7 +2502,7 @@
         <v>13.15</v>
       </c>
       <c r="J59" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2417,7 +2541,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2458,7 +2582,7 @@
         <v>13.15</v>
       </c>
       <c r="J61" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2493,13 +2617,11 @@
         <v>-910421.7299627796</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>13.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2534,13 +2656,11 @@
         <v>-914555.2959627795</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2575,13 +2695,11 @@
         <v>-900948.2672627795</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2620,7 +2738,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2655,19 +2773,19 @@
         <v>-877930.0074627795</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>13.3</v>
+        <v>13.76</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0.9797383720930233</v>
       </c>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2697,14 +2815,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2733,17 +2845,11 @@
         <v>-834258.5220225095</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2772,17 +2878,11 @@
         <v>-846552.6065225095</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2811,17 +2911,11 @@
         <v>-909848.7971225095</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2850,17 +2944,11 @@
         <v>-952036.5224225095</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2892,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2931,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2970,14 +3046,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3009,16 +3079,10 @@
         <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.9957518796992481</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -3045,7 +3109,7 @@
         <v>-1092349.934022509</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3276,7 +3340,7 @@
         <v>-963903.9965225096</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3309,7 +3373,7 @@
         <v>-993903.9965225096</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3474,7 +3538,7 @@
         <v>-972013.0395225096</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3507,7 +3571,7 @@
         <v>-1064402.67962251</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3540,7 +3604,7 @@
         <v>-1077538.02472251</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3738,7 +3802,7 @@
         <v>-1093355.68342251</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3903,7 +3967,7 @@
         <v>-1089154.79712251</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest CHR.xlsx
+++ b/BackTest/2020-01-16 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>-1093950.06073909</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>114184.9046</v>
       </c>
       <c r="G3" t="n">
-        <v>-979765.1561390897</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6365.9293</v>
       </c>
       <c r="G4" t="n">
-        <v>-986131.0854390897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>-986131.0854390897</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>5619.4348</v>
       </c>
       <c r="G6" t="n">
-        <v>-986131.0854390897</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>678.8121</v>
       </c>
       <c r="G7" t="n">
-        <v>-986809.8975390897</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>-986771.8975390897</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3655.7922</v>
       </c>
       <c r="G9" t="n">
-        <v>-990427.6897390897</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>606.6199</v>
       </c>
       <c r="G10" t="n">
-        <v>-991034.3096390897</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>62.6596</v>
       </c>
       <c r="G11" t="n">
-        <v>-990971.6500390897</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>37</v>
       </c>
       <c r="G12" t="n">
-        <v>-990934.6500390897</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>8008.9753</v>
       </c>
       <c r="G13" t="n">
-        <v>-998943.6253390898</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>38</v>
       </c>
       <c r="G14" t="n">
-        <v>-998905.6253390898</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>-998944.6253390898</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5102.3741</v>
       </c>
       <c r="G16" t="n">
-        <v>-998944.6253390898</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,19 @@
         <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>-998983.6253390898</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>13.11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +927,21 @@
         <v>5600</v>
       </c>
       <c r="G18" t="n">
-        <v>-993383.6253390898</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +963,21 @@
         <v>1097.96564094</v>
       </c>
       <c r="G19" t="n">
-        <v>-992285.6596981498</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +999,15 @@
         <v>9991.1018</v>
       </c>
       <c r="G20" t="n">
-        <v>-992285.6596981498</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1029,15 @@
         <v>14211.5726</v>
       </c>
       <c r="G21" t="n">
-        <v>-1006497.23229815</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1059,15 @@
         <v>67610.0511</v>
       </c>
       <c r="G22" t="n">
-        <v>-938887.1811981497</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1089,15 @@
         <v>5748.39</v>
       </c>
       <c r="G23" t="n">
-        <v>-938887.1811981497</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1119,15 @@
         <v>75798.9494</v>
       </c>
       <c r="G24" t="n">
-        <v>-938887.1811981497</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,15 @@
         <v>37925.6264</v>
       </c>
       <c r="G25" t="n">
-        <v>-938887.1811981497</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1179,15 @@
         <v>11007.937</v>
       </c>
       <c r="G26" t="n">
-        <v>-949895.1181981497</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1209,15 @@
         <v>1447.987</v>
       </c>
       <c r="G27" t="n">
-        <v>-949895.1181981497</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1239,15 @@
         <v>9559.950000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-959455.0681981497</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1269,15 @@
         <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>-959417.0681981497</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,15 @@
         <v>2077.0575</v>
       </c>
       <c r="G30" t="n">
-        <v>-959417.0681981497</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1329,15 @@
         <v>5257.1748</v>
       </c>
       <c r="G31" t="n">
-        <v>-954159.8933981496</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1359,15 @@
         <v>3706.4493</v>
       </c>
       <c r="G32" t="n">
-        <v>-957866.3426981496</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>83807.65979999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-1041674.00249815</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>24647.6646</v>
       </c>
       <c r="G34" t="n">
-        <v>-1017026.33789815</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>2648.8413</v>
       </c>
       <c r="G35" t="n">
-        <v>-1019675.17919815</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,22 +1479,15 @@
         <v>7845.7677</v>
       </c>
       <c r="G36" t="n">
-        <v>-1011829.41149815</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="J36" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1607,26 +1509,15 @@
         <v>3624.704</v>
       </c>
       <c r="G37" t="n">
-        <v>-1011829.41149815</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="J37" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1648,26 +1539,15 @@
         <v>145525.72085973</v>
       </c>
       <c r="G38" t="n">
-        <v>-866303.6906384196</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="J38" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1689,22 +1569,15 @@
         <v>4447.396</v>
       </c>
       <c r="G39" t="n">
-        <v>-866303.6906384196</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="J39" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1726,26 +1599,15 @@
         <v>38</v>
       </c>
       <c r="G40" t="n">
-        <v>-866341.6906384196</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="J40" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1767,26 +1629,15 @@
         <v>1018.8998</v>
       </c>
       <c r="G41" t="n">
-        <v>-866341.6906384196</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1808,26 +1659,15 @@
         <v>6057.7492</v>
       </c>
       <c r="G42" t="n">
-        <v>-872399.4398384196</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1849,26 +1689,15 @@
         <v>38</v>
       </c>
       <c r="G43" t="n">
-        <v>-872361.4398384196</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1890,26 +1719,15 @@
         <v>18739.1225</v>
       </c>
       <c r="G44" t="n">
-        <v>-853622.3173384195</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="J44" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1931,26 +1749,15 @@
         <v>29616.6496</v>
       </c>
       <c r="G45" t="n">
-        <v>-883238.9669384195</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="J45" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1972,26 +1779,15 @@
         <v>1834.4307</v>
       </c>
       <c r="G46" t="n">
-        <v>-881404.5362384195</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2013,26 +1809,15 @@
         <v>69097.3961</v>
       </c>
       <c r="G47" t="n">
-        <v>-881404.5362384195</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2054,26 +1839,15 @@
         <v>10314.40237564</v>
       </c>
       <c r="G48" t="n">
-        <v>-871090.1338627795</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2095,26 +1869,15 @@
         <v>39</v>
       </c>
       <c r="G49" t="n">
-        <v>-871129.1338627795</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="J49" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2136,26 +1899,15 @@
         <v>69100</v>
       </c>
       <c r="G50" t="n">
-        <v>-802029.1338627795</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J50" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,26 +1929,15 @@
         <v>45351.1328</v>
       </c>
       <c r="G51" t="n">
-        <v>-802029.1338627795</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="J51" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2218,24 +1959,15 @@
         <v>988.4769</v>
       </c>
       <c r="G52" t="n">
-        <v>-803017.6107627795</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2257,24 +1989,15 @@
         <v>64606.5011</v>
       </c>
       <c r="G53" t="n">
-        <v>-803017.6107627795</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2296,24 +2019,15 @@
         <v>1027.7249</v>
       </c>
       <c r="G54" t="n">
-        <v>-804045.3356627795</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2335,24 +2049,15 @@
         <v>38</v>
       </c>
       <c r="G55" t="n">
-        <v>-804007.3356627795</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2374,24 +2079,15 @@
         <v>73786.6703</v>
       </c>
       <c r="G56" t="n">
-        <v>-877794.0059627795</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2413,24 +2109,15 @@
         <v>2878.9574</v>
       </c>
       <c r="G57" t="n">
-        <v>-880672.9633627795</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2452,26 +2139,15 @@
         <v>1683.8525</v>
       </c>
       <c r="G58" t="n">
-        <v>-882356.8158627795</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2493,26 +2169,15 @@
         <v>38</v>
       </c>
       <c r="G59" t="n">
-        <v>-882318.8158627795</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2534,24 +2199,15 @@
         <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>-882357.8158627795</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2573,26 +2229,15 @@
         <v>28101.9141</v>
       </c>
       <c r="G61" t="n">
-        <v>-910459.7299627796</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2614,24 +2259,15 @@
         <v>38</v>
       </c>
       <c r="G62" t="n">
-        <v>-910421.7299627796</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2653,24 +2289,15 @@
         <v>4133.566</v>
       </c>
       <c r="G63" t="n">
-        <v>-914555.2959627795</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2692,24 +2319,15 @@
         <v>13607.0287</v>
       </c>
       <c r="G64" t="n">
-        <v>-900948.2672627795</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2731,24 +2349,15 @@
         <v>28832.4778</v>
       </c>
       <c r="G65" t="n">
-        <v>-872115.7894627795</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2770,24 +2379,15 @@
         <v>5814.218</v>
       </c>
       <c r="G66" t="n">
-        <v>-877930.0074627795</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>0.9797383720930233</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2809,18 +2409,15 @@
         <v>43635.48544027</v>
       </c>
       <c r="G67" t="n">
-        <v>-834294.5220225095</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2842,18 +2439,15 @@
         <v>36</v>
       </c>
       <c r="G68" t="n">
-        <v>-834258.5220225095</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2875,18 +2469,15 @@
         <v>12294.0845</v>
       </c>
       <c r="G69" t="n">
-        <v>-846552.6065225095</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2908,18 +2499,15 @@
         <v>63296.1906</v>
       </c>
       <c r="G70" t="n">
-        <v>-909848.7971225095</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2941,18 +2529,15 @@
         <v>42187.7253</v>
       </c>
       <c r="G71" t="n">
-        <v>-952036.5224225095</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2974,18 +2559,15 @@
         <v>79231.8563</v>
       </c>
       <c r="G72" t="n">
-        <v>-1031268.378722509</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3007,18 +2589,15 @@
         <v>36647.558</v>
       </c>
       <c r="G73" t="n">
-        <v>-994620.8207225095</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3040,18 +2619,15 @@
         <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>-994660.8207225095</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3073,18 +2649,15 @@
         <v>6867.4065</v>
       </c>
       <c r="G75" t="n">
-        <v>-1001528.22722251</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3106,18 +2679,15 @@
         <v>90821.7068</v>
       </c>
       <c r="G76" t="n">
-        <v>-1092349.934022509</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3139,18 +2709,15 @@
         <v>3627.8405</v>
       </c>
       <c r="G77" t="n">
-        <v>-1088722.09352251</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3172,18 +2739,15 @@
         <v>110340.73</v>
       </c>
       <c r="G78" t="n">
-        <v>-978381.3635225096</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3205,18 +2769,15 @@
         <v>10312.1217</v>
       </c>
       <c r="G79" t="n">
-        <v>-968069.2418225096</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3238,18 +2799,15 @@
         <v>10281.951</v>
       </c>
       <c r="G80" t="n">
-        <v>-957787.2908225096</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3271,18 +2829,15 @@
         <v>6152.5257</v>
       </c>
       <c r="G81" t="n">
-        <v>-963939.8165225096</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3304,18 +2859,15 @@
         <v>35.82</v>
       </c>
       <c r="G82" t="n">
-        <v>-963903.9965225096</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3337,18 +2889,15 @@
         <v>5533.3066</v>
       </c>
       <c r="G83" t="n">
-        <v>-963903.9965225096</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3370,18 +2919,15 @@
         <v>30000</v>
       </c>
       <c r="G84" t="n">
-        <v>-993903.9965225096</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3403,18 +2949,15 @@
         <v>36</v>
       </c>
       <c r="G85" t="n">
-        <v>-993867.9965225096</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3436,18 +2979,15 @@
         <v>1000</v>
       </c>
       <c r="G86" t="n">
-        <v>-994867.9965225096</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3469,18 +3009,15 @@
         <v>3800</v>
       </c>
       <c r="G87" t="n">
-        <v>-994867.9965225096</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3502,18 +3039,15 @@
         <v>22817.957</v>
       </c>
       <c r="G88" t="n">
-        <v>-972050.0395225096</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3535,18 +3069,15 @@
         <v>37</v>
       </c>
       <c r="G89" t="n">
-        <v>-972013.0395225096</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3568,18 +3099,15 @@
         <v>92389.6401</v>
       </c>
       <c r="G90" t="n">
-        <v>-1064402.67962251</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3601,18 +3129,15 @@
         <v>13135.3451</v>
       </c>
       <c r="G91" t="n">
-        <v>-1077538.02472251</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3634,18 +3159,15 @@
         <v>4909.6407</v>
       </c>
       <c r="G92" t="n">
-        <v>-1077538.02472251</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3667,18 +3189,15 @@
         <v>36.1</v>
       </c>
       <c r="G93" t="n">
-        <v>-1077501.924722509</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3700,18 +3219,15 @@
         <v>11005.1088</v>
       </c>
       <c r="G94" t="n">
-        <v>-1088507.03352251</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3733,18 +3249,15 @@
         <v>36.2</v>
       </c>
       <c r="G95" t="n">
-        <v>-1088470.83352251</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3766,18 +3279,15 @@
         <v>4846.8499</v>
       </c>
       <c r="G96" t="n">
-        <v>-1093317.68342251</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3799,18 +3309,15 @@
         <v>38</v>
       </c>
       <c r="G97" t="n">
-        <v>-1093355.68342251</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3832,18 +3339,15 @@
         <v>40</v>
       </c>
       <c r="G98" t="n">
-        <v>-1093315.68342251</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3865,18 +3369,15 @@
         <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>-1093365.68342251</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3898,18 +3399,15 @@
         <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>-1093365.68342251</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3931,18 +3429,15 @@
         <v>78</v>
       </c>
       <c r="G101" t="n">
-        <v>-1093443.68342251</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3964,18 +3459,15 @@
         <v>4288.8863</v>
       </c>
       <c r="G102" t="n">
-        <v>-1089154.79712251</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
